--- a/数据库与报表名称对应.xlsx
+++ b/数据库与报表名称对应.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="102">
   <si>
     <t>报表名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -399,13 +399,17 @@
   </si>
   <si>
     <t>nb_lyxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nb_</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -795,11 +799,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1213,12 +1217,16 @@
         <v>51</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="53" spans="1:2" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>

--- a/数据库与报表名称对应.xlsx
+++ b/数据库与报表名称对应.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>报表名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -800,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B158"/>
+  <dimension ref="A1:B157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:XFD52"/>
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1220,13 +1220,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>101</v>
-      </c>
+    <row r="52" spans="1:2" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
     </row>
     <row r="53" spans="1:2" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
@@ -1610,7 +1606,6 @@
     </row>
     <row r="148" spans="1:2" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
-      <c r="B148" s="2"/>
     </row>
     <row r="149" spans="1:2" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
@@ -1627,13 +1622,10 @@
     <row r="153" spans="1:2" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
     </row>
-    <row r="154" spans="1:2" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A154" s="2"/>
-    </row>
+    <row r="154" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="155" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="156" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="157" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="158" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据库与报表名称对应.xlsx
+++ b/数据库与报表名称对应.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
   <si>
     <t>报表名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -399,17 +399,13 @@
   </si>
   <si>
     <t>nb_lyxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nb_</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -799,11 +795,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B157"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1217,7 +1213,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:2" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1606,6 +1602,7 @@
     </row>
     <row r="148" spans="1:2" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
     </row>
     <row r="149" spans="1:2" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
@@ -1622,10 +1619,13 @@
     <row r="153" spans="1:2" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
     </row>
-    <row r="154" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="154" spans="1:2" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A154" s="2"/>
+    </row>
     <row r="155" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="156" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="157" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="158" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
